--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-100_remove/rem5/17/correct_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-100_remove/rem5/17/correct_predictions_17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -827,21 +827,21 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
+          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Downward ambient light too low</t>
+          <t>Unlocking takeoff restrictions not recommended</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>17-21</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -866,22 +866,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Backward obstacle avoidance unavailable</t>
+          <t>Downward ambient light too low</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>16-19</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -896,12 +896,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Backward obstacle avoidance unavailable</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>24-26</t>
+          <t>16-19</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -926,12 +926,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Only infrared sensors available</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>20-23</t>
+          <t>24-26</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -956,12 +956,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Only infrared sensors available</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>8-10</t>
+          <t>20-23</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -986,12 +986,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Obstacle avoidance unavailable</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>5-7</t>
+          <t>8-10</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1016,52 +1016,52 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Backward ambient light too low</t>
+          <t>Obstacle avoidance unavailable</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>11-15</t>
+          <t>5-7</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
+          <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Backward ambient light too low</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>13-15</t>
+          <t>11-15</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1076,12 +1076,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Only infrared sensors available</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>9-12</t>
+          <t>13-15</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1106,22 +1106,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Backward ambient light too low</t>
+          <t>Only infrared sensors available</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>9-12</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1136,52 +1136,52 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Backward obstacle avoidance unavailable</t>
+          <t>Backward ambient light too low</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Motor speed error</t>
+          <t>Backward obstacle avoidance unavailable</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1196,12 +1196,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>If the issue persists, contact DJI Support</t>
+          <t>Land or return to home promptly</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>21-27</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1226,72 +1226,72 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Land or return to home promptly</t>
+          <t>Motor speed error</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Compass abnormal</t>
+          <t>If the issue persists, contact DJI Support</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>21-27</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>The ground or walls may contain metal</t>
+          <t>After powering off the aircraft, replace the propeller on the beeping ESC</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>15-21</t>
+          <t>9-20</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1316,22 +1316,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Solution: 1. Ensure there are no magnets or metal objects near the aircraft</t>
+          <t>Compass abnormal</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2-14</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1346,12 +1346,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Move away from sources of interference before attempting flight</t>
+          <t>The ground or walls may contain metal</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>22-30</t>
+          <t>15-21</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1360,6 +1360,36 @@
         </is>
       </c>
       <c r="F31" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>6</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Solution: 1. Ensure there are no magnets or metal objects near the aircraft</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2-14</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-100_remove/rem5/17/correct_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-100_remove/rem5/17/correct_predictions_17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -827,21 +827,21 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
+          <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Unlocking takeoff restrictions not recommended</t>
+          <t>Downward ambient light too low</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>17-21</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -866,22 +866,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Downward ambient light too low</t>
+          <t>Backward obstacle avoidance unavailable</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>16-19</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -896,12 +896,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Backward obstacle avoidance unavailable</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>16-19</t>
+          <t>24-26</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -926,12 +926,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Only infrared sensors available</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>24-26</t>
+          <t>20-23</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -956,12 +956,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Only infrared sensors available</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>20-23</t>
+          <t>8-10</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -986,12 +986,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Obstacle avoidance unavailable</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>8-10</t>
+          <t>5-7</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1016,52 +1016,52 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Obstacle avoidance unavailable</t>
+          <t>Backward ambient light too low</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>5-7</t>
+          <t>11-15</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
+          <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Backward ambient light too low</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>11-15</t>
+          <t>13-15</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1076,12 +1076,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Only infrared sensors available</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>13-15</t>
+          <t>9-12</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1106,22 +1106,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Only infrared sensors available</t>
+          <t>Backward ambient light too low</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>9-12</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1136,52 +1136,52 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Backward ambient light too low</t>
+          <t>Backward obstacle avoidance unavailable</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Backward obstacle avoidance unavailable</t>
+          <t>Motor speed error</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1196,12 +1196,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Land or return to home promptly</t>
+          <t>If the issue persists, contact DJI Support</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>21-27</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1226,72 +1226,72 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Motor speed error</t>
+          <t>Land or return to home promptly</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>If the issue persists, contact DJI Support</t>
+          <t>Compass abnormal</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>21-27</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>After powering off the aircraft, replace the propeller on the beeping ESC</t>
+          <t>The ground or walls may contain metal</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>9-20</t>
+          <t>15-21</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1316,22 +1316,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Compass abnormal</t>
+          <t>Solution: 1. Ensure there are no magnets or metal objects near the aircraft</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>2-14</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1346,12 +1346,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>The ground or walls may contain metal</t>
+          <t>Move away from sources of interference before attempting flight</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>15-21</t>
+          <t>22-30</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1360,36 +1360,6 @@
         </is>
       </c>
       <c r="F31" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>6</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Solution: 1. Ensure there are no magnets or metal objects near the aircraft</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>2-14</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
